--- a/realTimeMatlabCode/ExtendedKalman/GimbalLock.xlsx
+++ b/realTimeMatlabCode/ExtendedKalman/GimbalLock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dariusmensah/Documents/CapstoneMonitoringHumanMovements/realTimeMatlabCode/ExtendedKalman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C8E44-1720-A943-9E52-741384DF9DD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB70B497-562F-3C42-B58F-CCD2615BFC17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F3001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/realTimeMatlabCode/ExtendedKalman/GimbalLock.xlsx
+++ b/realTimeMatlabCode/ExtendedKalman/GimbalLock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dariusmensah/Documents/CapstoneMonitoringHumanMovements/realTimeMatlabCode/ExtendedKalman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB70B497-562F-3C42-B58F-CCD2615BFC17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114B655-9FF0-8241-A311-14D3A5174822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
